--- a/Code/Results/Cases/Case_5_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_238/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.42118383314504</v>
+        <v>23.20031648293105</v>
       </c>
       <c r="C2">
-        <v>16.64865790233328</v>
+        <v>9.121142890126858</v>
       </c>
       <c r="D2">
-        <v>5.336258922638122</v>
+        <v>8.180230647678927</v>
       </c>
       <c r="E2">
-        <v>6.702691411838542</v>
+        <v>9.726312213286635</v>
       </c>
       <c r="F2">
-        <v>40.32817583781757</v>
+        <v>42.38014468077433</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.151547753749783</v>
+        <v>10.02731762449565</v>
       </c>
       <c r="M2">
-        <v>14.7904055685704</v>
+        <v>18.44414851031817</v>
       </c>
       <c r="N2">
-        <v>14.50971097079337</v>
+        <v>21.31830534023515</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.71718003369045</v>
+        <v>22.79640028415665</v>
       </c>
       <c r="C3">
-        <v>15.4756705899659</v>
+        <v>8.520819702750796</v>
       </c>
       <c r="D3">
-        <v>5.399100070812866</v>
+        <v>8.20335936488641</v>
       </c>
       <c r="E3">
-        <v>6.627171980669718</v>
+        <v>9.708442519933733</v>
       </c>
       <c r="F3">
-        <v>38.50104622898733</v>
+        <v>42.07396438172254</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.078935175467456</v>
+        <v>10.04054932860222</v>
       </c>
       <c r="M3">
-        <v>14.12613076348806</v>
+        <v>18.37493880585774</v>
       </c>
       <c r="N3">
-        <v>14.69421943513996</v>
+        <v>21.37021744265667</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.63570122605976</v>
+        <v>22.55225410524609</v>
       </c>
       <c r="C4">
-        <v>14.7211879577125</v>
+        <v>8.129543559500849</v>
       </c>
       <c r="D4">
-        <v>5.440742504564081</v>
+        <v>8.218590814447213</v>
       </c>
       <c r="E4">
-        <v>6.58109859383873</v>
+        <v>9.697215147095093</v>
       </c>
       <c r="F4">
-        <v>37.38315363987103</v>
+        <v>41.89694252176102</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.037750212838746</v>
+        <v>10.05016902832889</v>
       </c>
       <c r="M4">
-        <v>13.71603117460447</v>
+        <v>18.33678581621582</v>
       </c>
       <c r="N4">
-        <v>14.81256043272063</v>
+        <v>21.40404577617458</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.1862916109935</v>
+        <v>22.45387329883227</v>
       </c>
       <c r="C5">
-        <v>14.40493557689786</v>
+        <v>7.964377621417144</v>
       </c>
       <c r="D5">
-        <v>5.458434458036318</v>
+        <v>8.225056415159044</v>
       </c>
       <c r="E5">
-        <v>6.562370262443337</v>
+        <v>9.692575405310716</v>
       </c>
       <c r="F5">
-        <v>36.92892216880339</v>
+        <v>41.82761757209413</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.021800908285462</v>
+        <v>10.05446503871258</v>
       </c>
       <c r="M5">
-        <v>13.54851250580895</v>
+        <v>18.3223397775157</v>
       </c>
       <c r="N5">
-        <v>14.86201144444064</v>
+        <v>21.4183221187192</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.11114871163912</v>
+        <v>22.43760839616037</v>
       </c>
       <c r="C6">
-        <v>14.35188603086312</v>
+        <v>7.936606157332932</v>
       </c>
       <c r="D6">
-        <v>5.461414576102629</v>
+        <v>8.226145633696444</v>
       </c>
       <c r="E6">
-        <v>6.559262527962267</v>
+        <v>9.691801075610893</v>
       </c>
       <c r="F6">
-        <v>36.85358807206256</v>
+        <v>41.81627755937322</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.019202299947699</v>
+        <v>10.05520108717847</v>
       </c>
       <c r="M6">
-        <v>13.52067740664761</v>
+        <v>18.32000781733118</v>
       </c>
       <c r="N6">
-        <v>14.87029563991576</v>
+        <v>21.42072234125611</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.62967526813014</v>
+        <v>22.55092262584575</v>
       </c>
       <c r="C7">
-        <v>14.71695870086372</v>
+        <v>8.127339245173038</v>
       </c>
       <c r="D7">
-        <v>5.440978236778038</v>
+        <v>8.218676965071349</v>
       </c>
       <c r="E7">
-        <v>6.58084586098532</v>
+        <v>9.697152835420161</v>
       </c>
       <c r="F7">
-        <v>37.3770218882137</v>
+        <v>41.89599612586279</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.037531765816468</v>
+        <v>10.05022544400861</v>
       </c>
       <c r="M7">
-        <v>13.71377333890758</v>
+        <v>18.33658651967619</v>
       </c>
       <c r="N7">
-        <v>14.81322243526387</v>
+        <v>21.40423632434943</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.84101457965967</v>
+        <v>23.06032937887691</v>
       </c>
       <c r="C8">
-        <v>16.25121028088958</v>
+        <v>8.918847913960878</v>
       </c>
       <c r="D8">
-        <v>5.3572618670506</v>
+        <v>8.187991328454093</v>
       </c>
       <c r="E8">
-        <v>6.67657336756609</v>
+        <v>9.720203551007844</v>
       </c>
       <c r="F8">
-        <v>39.69751988211692</v>
+        <v>42.27232972341336</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.12579258008831</v>
+        <v>10.03156949000334</v>
       </c>
       <c r="M8">
-        <v>14.56191260878534</v>
+        <v>18.41939007785535</v>
       </c>
       <c r="N8">
-        <v>14.57225196112586</v>
+        <v>21.33579884677151</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.06942240148044</v>
+        <v>24.08372626987857</v>
       </c>
       <c r="C9">
-        <v>18.99704985544582</v>
+        <v>10.29183033728997</v>
       </c>
       <c r="D9">
-        <v>5.219830241327378</v>
+        <v>8.136011402257703</v>
       </c>
       <c r="E9">
-        <v>6.8680742606834</v>
+        <v>9.763394810530185</v>
       </c>
       <c r="F9">
-        <v>44.27091597161224</v>
+        <v>43.09479510621729</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.326845010035269</v>
+        <v>10.00685491608024</v>
       </c>
       <c r="M9">
-        <v>16.20230753572484</v>
+        <v>18.61573043672768</v>
       </c>
       <c r="N9">
-        <v>14.14222453691892</v>
+        <v>21.21711358252183</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.06578036152619</v>
+        <v>24.84233232133102</v>
       </c>
       <c r="C10">
-        <v>20.86849220617761</v>
+        <v>11.19242253867698</v>
       </c>
       <c r="D10">
-        <v>5.139291366158357</v>
+        <v>8.102844657830772</v>
       </c>
       <c r="E10">
-        <v>7.013431617588973</v>
+        <v>9.793923492208648</v>
       </c>
       <c r="F10">
-        <v>47.64260112110681</v>
+        <v>43.74674981790653</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.49315585626415</v>
+        <v>9.995938068887705</v>
       </c>
       <c r="M10">
-        <v>17.62744222064167</v>
+        <v>18.77994718712095</v>
       </c>
       <c r="N10">
-        <v>13.85640645191026</v>
+        <v>21.13939850484969</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.38572592698147</v>
+        <v>25.18721969605706</v>
       </c>
       <c r="C11">
-        <v>21.69191763653602</v>
+        <v>11.57888310752609</v>
       </c>
       <c r="D11">
-        <v>5.108249718251619</v>
+        <v>8.088853209888113</v>
       </c>
       <c r="E11">
-        <v>7.081222641657374</v>
+        <v>9.80755518124807</v>
       </c>
       <c r="F11">
-        <v>49.18140282649999</v>
+        <v>44.05279782175224</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.573257597783065</v>
+        <v>9.992544050040527</v>
       </c>
       <c r="M11">
-        <v>18.33322039101921</v>
+        <v>18.85880601053765</v>
       </c>
       <c r="N11">
-        <v>13.73415820428886</v>
+        <v>21.10610828936523</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.87983994700564</v>
+        <v>25.31765570172891</v>
       </c>
       <c r="C12">
-        <v>22.00008090747266</v>
+        <v>11.72190508491989</v>
       </c>
       <c r="D12">
-        <v>5.097419610686836</v>
+        <v>8.083713233337066</v>
       </c>
       <c r="E12">
-        <v>7.107199806939201</v>
+        <v>9.812680677661994</v>
       </c>
       <c r="F12">
-        <v>49.76524015199231</v>
+        <v>44.16997138394793</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.604269712062745</v>
+        <v>9.991484767435695</v>
       </c>
       <c r="M12">
-        <v>18.59711746164674</v>
+        <v>18.88924816669324</v>
       </c>
       <c r="N12">
-        <v>13.68911624253487</v>
+        <v>21.09379934994226</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.7736694922688</v>
+        <v>25.28957342888547</v>
       </c>
       <c r="C13">
-        <v>21.93386840715079</v>
+        <v>11.69125022546705</v>
       </c>
       <c r="D13">
-        <v>5.09970879671144</v>
+        <v>8.08481316923824</v>
       </c>
       <c r="E13">
-        <v>7.101590350218825</v>
+        <v>9.811578430485463</v>
       </c>
       <c r="F13">
-        <v>49.63944175404696</v>
+        <v>44.14468037379757</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.597559768068254</v>
+        <v>9.991702855708466</v>
       </c>
       <c r="M13">
-        <v>18.54042727868478</v>
+        <v>18.88266639715574</v>
       </c>
       <c r="N13">
-        <v>13.69875878312483</v>
+        <v>21.09643706397652</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.42648857381722</v>
+        <v>25.19795481599297</v>
       </c>
       <c r="C14">
-        <v>21.71734129518518</v>
+        <v>11.59071609542</v>
       </c>
       <c r="D14">
-        <v>5.107339421521347</v>
+        <v>8.088427164997695</v>
       </c>
       <c r="E14">
-        <v>7.083353237558653</v>
+        <v>9.807977589408207</v>
       </c>
       <c r="F14">
-        <v>49.22940990229504</v>
+        <v>44.06241259076016</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.575795112837453</v>
+        <v>9.992452374515858</v>
       </c>
       <c r="M14">
-        <v>18.35499705965761</v>
+        <v>18.86129898460881</v>
       </c>
       <c r="N14">
-        <v>13.73042664451318</v>
+        <v>21.10508966206535</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.2131009654597</v>
+        <v>25.14181030406612</v>
       </c>
       <c r="C15">
-        <v>21.58424852773581</v>
+        <v>11.52870389615487</v>
       </c>
       <c r="D15">
-        <v>5.112137752799848</v>
+        <v>8.090661473962403</v>
       </c>
       <c r="E15">
-        <v>7.072224534950751</v>
+        <v>9.80576722147471</v>
       </c>
       <c r="F15">
-        <v>48.97841550525907</v>
+        <v>44.01218538977302</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.562553413645213</v>
+        <v>9.992940898642296</v>
       </c>
       <c r="M15">
-        <v>18.24098641600824</v>
+        <v>18.84828582577397</v>
       </c>
       <c r="N15">
-        <v>13.74999144165325</v>
+        <v>21.11042837304144</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.97869021737226</v>
+        <v>24.81977724399702</v>
       </c>
       <c r="C16">
-        <v>20.81414770208695</v>
+        <v>11.16670058903792</v>
       </c>
       <c r="D16">
-        <v>5.141442392640707</v>
+        <v>8.103781145715985</v>
       </c>
       <c r="E16">
-        <v>7.009040269534371</v>
+        <v>9.793027502490602</v>
       </c>
       <c r="F16">
-        <v>47.54216813796758</v>
+        <v>43.72693248279052</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.488013741274239</v>
+        <v>9.996191502963386</v>
       </c>
       <c r="M16">
-        <v>17.5808307302909</v>
+        <v>18.77487572480175</v>
       </c>
       <c r="N16">
-        <v>13.86456282545597</v>
+        <v>21.14161566743192</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.21069055140433</v>
+        <v>24.62206928776163</v>
       </c>
       <c r="C17">
-        <v>20.33481057925246</v>
+        <v>10.93868745188507</v>
       </c>
       <c r="D17">
-        <v>5.16093194785214</v>
+        <v>8.112110867959331</v>
       </c>
       <c r="E17">
-        <v>6.970749365418577</v>
+        <v>9.785146737974367</v>
       </c>
       <c r="F17">
-        <v>46.66259135034223</v>
+        <v>43.55430721945737</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.443451083395443</v>
+        <v>9.998588240377027</v>
       </c>
       <c r="M17">
-        <v>17.16953823924526</v>
+        <v>18.73089323878376</v>
       </c>
       <c r="N17">
-        <v>13.9369256854124</v>
+        <v>21.1612768852957</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.76486586519012</v>
+        <v>24.50834127544064</v>
       </c>
       <c r="C18">
-        <v>20.05645759838594</v>
+        <v>10.80535339416076</v>
       </c>
       <c r="D18">
-        <v>5.172660191046779</v>
+        <v>8.117005050502733</v>
       </c>
       <c r="E18">
-        <v>6.94887775718446</v>
+        <v>9.78058982172602</v>
       </c>
       <c r="F18">
-        <v>46.15711824054802</v>
+        <v>43.45591424834596</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.418235545416382</v>
+        <v>10.00011476515272</v>
       </c>
       <c r="M18">
-        <v>16.93056711113205</v>
+        <v>18.70598796012176</v>
       </c>
       <c r="N18">
-        <v>13.97926897090434</v>
+        <v>21.17277960944947</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.61320137069199</v>
+        <v>24.46983715166849</v>
       </c>
       <c r="C19">
-        <v>19.96174657059311</v>
+        <v>10.75983264275746</v>
       </c>
       <c r="D19">
-        <v>5.176716885222185</v>
+        <v>8.118679833027709</v>
       </c>
       <c r="E19">
-        <v>6.941496733120724</v>
+        <v>9.779042778974995</v>
       </c>
       <c r="F19">
-        <v>45.98603920546953</v>
+        <v>43.4227565101237</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.409768294234929</v>
+        <v>10.00065703904525</v>
       </c>
       <c r="M19">
-        <v>16.84923430009504</v>
+        <v>18.69762335399626</v>
       </c>
       <c r="N19">
-        <v>13.99372607177311</v>
+        <v>21.17670755170897</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.29286570048383</v>
+        <v>24.64311784085489</v>
       </c>
       <c r="C20">
-        <v>20.38610874153455</v>
+        <v>10.96318605422018</v>
       </c>
       <c r="D20">
-        <v>5.158802800424929</v>
+        <v>8.111213474971366</v>
       </c>
       <c r="E20">
-        <v>6.974809291329451</v>
+        <v>9.785988151973806</v>
       </c>
       <c r="F20">
-        <v>46.75617629116291</v>
+        <v>43.57259127322155</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.448151561702938</v>
+        <v>9.998317788320128</v>
       </c>
       <c r="M20">
-        <v>17.21356817988047</v>
+        <v>18.73553477358595</v>
       </c>
       <c r="N20">
-        <v>13.92914692362853</v>
+        <v>21.15916382018947</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.52861502165885</v>
+        <v>25.2248709647268</v>
       </c>
       <c r="C21">
-        <v>21.78103645677377</v>
+        <v>11.62033543342614</v>
       </c>
       <c r="D21">
-        <v>5.105071961456424</v>
+        <v>8.087361345930182</v>
       </c>
       <c r="E21">
-        <v>7.088701018772395</v>
+        <v>9.80903623287031</v>
       </c>
       <c r="F21">
-        <v>49.34981145350643</v>
+        <v>44.08654256538427</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.582169127311582</v>
+        <v>9.992226091390503</v>
       </c>
       <c r="M21">
-        <v>18.40955131047197</v>
+        <v>18.86755951480212</v>
       </c>
       <c r="N21">
-        <v>13.72108987915369</v>
+        <v>21.102540108532</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.95675119921567</v>
+        <v>25.60405759415292</v>
       </c>
       <c r="C22">
-        <v>22.67163707669578</v>
+        <v>12.03046398361788</v>
       </c>
       <c r="D22">
-        <v>5.0754177286251</v>
+        <v>8.072695496653091</v>
       </c>
       <c r="E22">
-        <v>7.164960831586488</v>
+        <v>9.823886700131146</v>
       </c>
       <c r="F22">
-        <v>51.05179550448386</v>
+        <v>44.42985948230206</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.673741297470949</v>
+        <v>9.989561781480235</v>
       </c>
       <c r="M22">
-        <v>19.17173841052088</v>
+        <v>18.95721733290616</v>
       </c>
       <c r="N22">
-        <v>13.59248625798236</v>
+        <v>21.06726674223951</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.19737026787463</v>
+        <v>25.40181547170257</v>
       </c>
       <c r="C23">
-        <v>22.19809955916559</v>
+        <v>11.81333606067718</v>
       </c>
       <c r="D23">
-        <v>5.090699440901099</v>
+        <v>8.080438274486195</v>
       </c>
       <c r="E23">
-        <v>7.124067207817947</v>
+        <v>9.815980104165812</v>
       </c>
       <c r="F23">
-        <v>50.14259957692349</v>
+        <v>44.24597359325301</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.624487720112954</v>
+        <v>9.990863323108073</v>
       </c>
       <c r="M23">
-        <v>18.7666210735564</v>
+        <v>18.90906279063186</v>
       </c>
       <c r="N23">
-        <v>13.66039814301602</v>
+        <v>21.08593393798265</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.25572771744575</v>
+        <v>24.6336019761089</v>
       </c>
       <c r="C24">
-        <v>20.36292551455777</v>
+        <v>10.95211723403105</v>
       </c>
       <c r="D24">
-        <v>5.159763766391485</v>
+        <v>8.11161885835919</v>
       </c>
       <c r="E24">
-        <v>6.972973360280251</v>
+        <v>9.785607830207471</v>
       </c>
       <c r="F24">
-        <v>46.71386592197918</v>
+        <v>43.56432239380574</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.446025219607361</v>
+        <v>9.998439596805204</v>
       </c>
       <c r="M24">
-        <v>17.19367009372815</v>
+        <v>18.7334351481554</v>
       </c>
       <c r="N24">
-        <v>13.93266140379932</v>
+        <v>21.160118516427</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.9250349101018</v>
+        <v>23.80510719635138</v>
       </c>
       <c r="C25">
-        <v>18.28099444621717</v>
+        <v>9.939472193788083</v>
       </c>
       <c r="D25">
-        <v>5.253763255480499</v>
+        <v>8.149193326718898</v>
       </c>
       <c r="E25">
-        <v>6.815642567942179</v>
+        <v>9.75192344518921</v>
       </c>
       <c r="F25">
-        <v>43.03196516154335</v>
+        <v>42.86362835255515</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.269310756980468</v>
+        <v>10.01226940659424</v>
       </c>
       <c r="M25">
-        <v>15.76152157922953</v>
+        <v>18.55905051383595</v>
       </c>
       <c r="N25">
-        <v>14.25362464649183</v>
+        <v>21.247557454848</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_238/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_238/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.20031648293105</v>
+        <v>26.42118383314511</v>
       </c>
       <c r="C2">
-        <v>9.121142890126858</v>
+        <v>16.6486579023336</v>
       </c>
       <c r="D2">
-        <v>8.180230647678927</v>
+        <v>5.336258922637918</v>
       </c>
       <c r="E2">
-        <v>9.726312213286635</v>
+        <v>6.702691411838872</v>
       </c>
       <c r="F2">
-        <v>42.38014468077433</v>
+        <v>40.32817583781746</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.02731762449565</v>
+        <v>6.151547753749862</v>
       </c>
       <c r="M2">
-        <v>18.44414851031817</v>
+        <v>14.79040556857034</v>
       </c>
       <c r="N2">
-        <v>21.31830534023515</v>
+        <v>14.50971097079319</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.79640028415665</v>
+        <v>24.71718003369045</v>
       </c>
       <c r="C3">
-        <v>8.520819702750796</v>
+        <v>15.47567058996584</v>
       </c>
       <c r="D3">
-        <v>8.20335936488641</v>
+        <v>5.399100070813039</v>
       </c>
       <c r="E3">
-        <v>9.708442519933733</v>
+        <v>6.627171980669652</v>
       </c>
       <c r="F3">
-        <v>42.07396438172254</v>
+        <v>38.50104622898727</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.04054932860222</v>
+        <v>6.078935175467459</v>
       </c>
       <c r="M3">
-        <v>18.37493880585774</v>
+        <v>14.12613076348806</v>
       </c>
       <c r="N3">
-        <v>21.37021744265667</v>
+        <v>14.69421943513992</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.55225410524609</v>
+        <v>23.63570122605977</v>
       </c>
       <c r="C4">
-        <v>8.129543559500849</v>
+        <v>14.7211879577125</v>
       </c>
       <c r="D4">
-        <v>8.218590814447213</v>
+        <v>5.440742504564025</v>
       </c>
       <c r="E4">
-        <v>9.697215147095093</v>
+        <v>6.581098593838732</v>
       </c>
       <c r="F4">
-        <v>41.89694252176102</v>
+        <v>37.38315363987108</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.05016902832889</v>
+        <v>6.037750212838793</v>
       </c>
       <c r="M4">
-        <v>18.33678581621582</v>
+        <v>13.71603117460448</v>
       </c>
       <c r="N4">
-        <v>21.40404577617458</v>
+        <v>14.81256043272066</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.45387329883227</v>
+        <v>23.18629161099349</v>
       </c>
       <c r="C5">
-        <v>7.964377621417144</v>
+        <v>14.40493557689802</v>
       </c>
       <c r="D5">
-        <v>8.225056415159044</v>
+        <v>5.45843445803637</v>
       </c>
       <c r="E5">
-        <v>9.692575405310716</v>
+        <v>6.562370262443534</v>
       </c>
       <c r="F5">
-        <v>41.82761757209413</v>
+        <v>36.92892216880337</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.05446503871258</v>
+        <v>6.021800908285575</v>
       </c>
       <c r="M5">
-        <v>18.3223397775157</v>
+        <v>13.54851250580897</v>
       </c>
       <c r="N5">
-        <v>21.4183221187192</v>
+        <v>14.86201144444065</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.43760839616037</v>
+        <v>23.11114871163912</v>
       </c>
       <c r="C6">
-        <v>7.936606157332932</v>
+        <v>14.35188603086312</v>
       </c>
       <c r="D6">
-        <v>8.226145633696444</v>
+        <v>5.461414576102801</v>
       </c>
       <c r="E6">
-        <v>9.691801075610893</v>
+        <v>6.559262527962336</v>
       </c>
       <c r="F6">
-        <v>41.81627755937322</v>
+        <v>36.85358807206258</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.05520108717847</v>
+        <v>6.019202299947722</v>
       </c>
       <c r="M6">
-        <v>18.32000781733118</v>
+        <v>13.52067740664762</v>
       </c>
       <c r="N6">
-        <v>21.42072234125611</v>
+        <v>14.87029563991585</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.55092262584575</v>
+        <v>23.62967526813014</v>
       </c>
       <c r="C7">
-        <v>8.127339245173038</v>
+        <v>14.71695870086372</v>
       </c>
       <c r="D7">
-        <v>8.218676965071349</v>
+        <v>5.44097823677804</v>
       </c>
       <c r="E7">
-        <v>9.697152835420161</v>
+        <v>6.580845860985386</v>
       </c>
       <c r="F7">
-        <v>41.89599612586279</v>
+        <v>37.37702188821365</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.05022544400861</v>
+        <v>6.037531765816491</v>
       </c>
       <c r="M7">
-        <v>18.33658651967619</v>
+        <v>13.71377333890758</v>
       </c>
       <c r="N7">
-        <v>21.40423632434943</v>
+        <v>14.81322243526383</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.06032937887691</v>
+        <v>25.84101457965969</v>
       </c>
       <c r="C8">
-        <v>8.918847913960878</v>
+        <v>16.25121028088964</v>
       </c>
       <c r="D8">
-        <v>8.187991328454093</v>
+        <v>5.357261867050617</v>
       </c>
       <c r="E8">
-        <v>9.720203551007844</v>
+        <v>6.676573367566085</v>
       </c>
       <c r="F8">
-        <v>42.27232972341336</v>
+        <v>39.69751988211694</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.03156949000334</v>
+        <v>6.125792580088218</v>
       </c>
       <c r="M8">
-        <v>18.41939007785535</v>
+        <v>14.56191260878534</v>
       </c>
       <c r="N8">
-        <v>21.33579884677151</v>
+        <v>14.57225196112587</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.08372626987857</v>
+        <v>30.06942240148049</v>
       </c>
       <c r="C9">
-        <v>10.29183033728997</v>
+        <v>18.99704985544577</v>
       </c>
       <c r="D9">
-        <v>8.136011402257703</v>
+        <v>5.219830241327294</v>
       </c>
       <c r="E9">
-        <v>9.763394810530185</v>
+        <v>6.868074260683202</v>
       </c>
       <c r="F9">
-        <v>43.09479510621729</v>
+        <v>44.27091597161218</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.00685491608024</v>
+        <v>6.326845010035206</v>
       </c>
       <c r="M9">
-        <v>18.61573043672768</v>
+        <v>16.2023075357248</v>
       </c>
       <c r="N9">
-        <v>21.21711358252183</v>
+        <v>14.14222453691891</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.84233232133102</v>
+        <v>33.06578036152633</v>
       </c>
       <c r="C10">
-        <v>11.19242253867698</v>
+        <v>20.86849220617753</v>
       </c>
       <c r="D10">
-        <v>8.102844657830772</v>
+        <v>5.139291366158404</v>
       </c>
       <c r="E10">
-        <v>9.793923492208648</v>
+        <v>7.013431617588971</v>
       </c>
       <c r="F10">
-        <v>43.74674981790653</v>
+        <v>47.64260112110685</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.995938068887705</v>
+        <v>6.493155856264169</v>
       </c>
       <c r="M10">
-        <v>18.77994718712095</v>
+        <v>17.62744222064173</v>
       </c>
       <c r="N10">
-        <v>21.13939850484969</v>
+        <v>13.85640645191021</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.18721969605706</v>
+        <v>34.38572592698147</v>
       </c>
       <c r="C11">
-        <v>11.57888310752609</v>
+        <v>21.69191763653612</v>
       </c>
       <c r="D11">
-        <v>8.088853209888113</v>
+        <v>5.108249718251654</v>
       </c>
       <c r="E11">
-        <v>9.80755518124807</v>
+        <v>7.081222641657376</v>
       </c>
       <c r="F11">
-        <v>44.05279782175224</v>
+        <v>49.18140282650002</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.992544050040527</v>
+        <v>6.573257597783036</v>
       </c>
       <c r="M11">
-        <v>18.85880601053765</v>
+        <v>18.33322039101925</v>
       </c>
       <c r="N11">
-        <v>21.10610828936523</v>
+        <v>13.73415820428887</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.31765570172891</v>
+        <v>34.87983994700574</v>
       </c>
       <c r="C12">
-        <v>11.72190508491989</v>
+        <v>22.00008090747269</v>
       </c>
       <c r="D12">
-        <v>8.083713233337066</v>
+        <v>5.09741961068679</v>
       </c>
       <c r="E12">
-        <v>9.812680677661994</v>
+        <v>7.107199806939265</v>
       </c>
       <c r="F12">
-        <v>44.16997138394793</v>
+        <v>49.76524015199229</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.991484767435695</v>
+        <v>6.604269712062785</v>
       </c>
       <c r="M12">
-        <v>18.88924816669324</v>
+        <v>18.59711746164678</v>
       </c>
       <c r="N12">
-        <v>21.09379934994226</v>
+        <v>13.68911624253482</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.28957342888547</v>
+        <v>34.77366949226883</v>
       </c>
       <c r="C13">
-        <v>11.69125022546705</v>
+        <v>21.93386840715086</v>
       </c>
       <c r="D13">
-        <v>8.08481316923824</v>
+        <v>5.099708796711521</v>
       </c>
       <c r="E13">
-        <v>9.811578430485463</v>
+        <v>7.101590350219094</v>
       </c>
       <c r="F13">
-        <v>44.14468037379757</v>
+        <v>49.63944175404697</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.991702855708466</v>
+        <v>6.597559768068308</v>
       </c>
       <c r="M13">
-        <v>18.88266639715574</v>
+        <v>18.54042727868479</v>
       </c>
       <c r="N13">
-        <v>21.09643706397652</v>
+        <v>13.69875878312478</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.19795481599297</v>
+        <v>34.42648857381715</v>
       </c>
       <c r="C14">
-        <v>11.59071609542</v>
+        <v>21.71734129518527</v>
       </c>
       <c r="D14">
-        <v>8.088427164997695</v>
+        <v>5.107339421521489</v>
       </c>
       <c r="E14">
-        <v>9.807977589408207</v>
+        <v>7.083353237558654</v>
       </c>
       <c r="F14">
-        <v>44.06241259076016</v>
+        <v>49.229409902295</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.992452374515858</v>
+        <v>6.575795112837467</v>
       </c>
       <c r="M14">
-        <v>18.86129898460881</v>
+        <v>18.35499705965756</v>
       </c>
       <c r="N14">
-        <v>21.10508966206535</v>
+        <v>13.73042664451314</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.14181030406612</v>
+        <v>34.21310096545975</v>
       </c>
       <c r="C15">
-        <v>11.52870389615487</v>
+        <v>21.58424852773588</v>
       </c>
       <c r="D15">
-        <v>8.090661473962403</v>
+        <v>5.112137752799812</v>
       </c>
       <c r="E15">
-        <v>9.80576722147471</v>
+        <v>7.072224534950687</v>
       </c>
       <c r="F15">
-        <v>44.01218538977302</v>
+        <v>48.97841550525905</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.992940898642296</v>
+        <v>6.562553413645192</v>
       </c>
       <c r="M15">
-        <v>18.84828582577397</v>
+        <v>18.24098641600828</v>
       </c>
       <c r="N15">
-        <v>21.11042837304144</v>
+        <v>13.74999144165321</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.81977724399702</v>
+        <v>32.97869021737216</v>
       </c>
       <c r="C16">
-        <v>11.16670058903792</v>
+        <v>20.81414770208679</v>
       </c>
       <c r="D16">
-        <v>8.103781145715985</v>
+        <v>5.141442392640783</v>
       </c>
       <c r="E16">
-        <v>9.793027502490602</v>
+        <v>7.009040269534301</v>
       </c>
       <c r="F16">
-        <v>43.72693248279052</v>
+        <v>47.54216813796749</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.996191502963386</v>
+        <v>6.488013741274257</v>
       </c>
       <c r="M16">
-        <v>18.77487572480175</v>
+        <v>17.58083073029083</v>
       </c>
       <c r="N16">
-        <v>21.14161566743192</v>
+        <v>13.86456282545601</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.62206928776163</v>
+        <v>32.21069055140428</v>
       </c>
       <c r="C17">
-        <v>10.93868745188507</v>
+        <v>20.33481057925249</v>
       </c>
       <c r="D17">
-        <v>8.112110867959331</v>
+        <v>5.160931947852257</v>
       </c>
       <c r="E17">
-        <v>9.785146737974367</v>
+        <v>6.970749365418515</v>
       </c>
       <c r="F17">
-        <v>43.55430721945737</v>
+        <v>46.66259135034217</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.998588240377027</v>
+        <v>6.443451083395433</v>
       </c>
       <c r="M17">
-        <v>18.73089323878376</v>
+        <v>17.16953823924525</v>
       </c>
       <c r="N17">
-        <v>21.1612768852957</v>
+        <v>13.93692568541239</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.50834127544064</v>
+        <v>31.76486586519016</v>
       </c>
       <c r="C18">
-        <v>10.80535339416076</v>
+        <v>20.05645759838587</v>
       </c>
       <c r="D18">
-        <v>8.117005050502733</v>
+        <v>5.172660191046728</v>
       </c>
       <c r="E18">
-        <v>9.78058982172602</v>
+        <v>6.948877757184396</v>
       </c>
       <c r="F18">
-        <v>43.45591424834596</v>
+        <v>46.15711824054801</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.00011476515272</v>
+        <v>6.418235545416396</v>
       </c>
       <c r="M18">
-        <v>18.70598796012176</v>
+        <v>16.93056711113205</v>
       </c>
       <c r="N18">
-        <v>21.17277960944947</v>
+        <v>13.97926897090428</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.46983715166849</v>
+        <v>31.61320137069209</v>
       </c>
       <c r="C19">
-        <v>10.75983264275746</v>
+        <v>19.96174657059313</v>
       </c>
       <c r="D19">
-        <v>8.118679833027709</v>
+        <v>5.176716885222172</v>
       </c>
       <c r="E19">
-        <v>9.779042778974995</v>
+        <v>6.94149673312072</v>
       </c>
       <c r="F19">
-        <v>43.4227565101237</v>
+        <v>45.98603920546956</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.00065703904525</v>
+        <v>6.409768294234929</v>
       </c>
       <c r="M19">
-        <v>18.69762335399626</v>
+        <v>16.84923430009509</v>
       </c>
       <c r="N19">
-        <v>21.17670755170897</v>
+        <v>13.99372607177304</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.64311784085489</v>
+        <v>32.29286570048387</v>
       </c>
       <c r="C20">
-        <v>10.96318605422018</v>
+        <v>20.38610874153455</v>
       </c>
       <c r="D20">
-        <v>8.111213474971366</v>
+        <v>5.158802800424967</v>
       </c>
       <c r="E20">
-        <v>9.785988151973806</v>
+        <v>6.974809291329516</v>
       </c>
       <c r="F20">
-        <v>43.57259127322155</v>
+        <v>46.75617629116287</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.998317788320128</v>
+        <v>6.44815156170297</v>
       </c>
       <c r="M20">
-        <v>18.73553477358595</v>
+        <v>17.21356817988047</v>
       </c>
       <c r="N20">
-        <v>21.15916382018947</v>
+        <v>13.92914692362852</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.2248709647268</v>
+        <v>34.52861502165879</v>
       </c>
       <c r="C21">
-        <v>11.62033543342614</v>
+        <v>21.78103645677377</v>
       </c>
       <c r="D21">
-        <v>8.087361345930182</v>
+        <v>5.105071961456506</v>
       </c>
       <c r="E21">
-        <v>9.80903623287031</v>
+        <v>7.088701018772266</v>
       </c>
       <c r="F21">
-        <v>44.08654256538427</v>
+        <v>49.34981145350635</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.992226091390503</v>
+        <v>6.582169127311547</v>
       </c>
       <c r="M21">
-        <v>18.86755951480212</v>
+        <v>18.40955131047194</v>
       </c>
       <c r="N21">
-        <v>21.102540108532</v>
+        <v>13.72108987915368</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.60405759415292</v>
+        <v>35.9567511992157</v>
       </c>
       <c r="C22">
-        <v>12.03046398361788</v>
+        <v>22.67163707669583</v>
       </c>
       <c r="D22">
-        <v>8.072695496653091</v>
+        <v>5.075417728625231</v>
       </c>
       <c r="E22">
-        <v>9.823886700131146</v>
+        <v>7.164960831586492</v>
       </c>
       <c r="F22">
-        <v>44.42985948230206</v>
+        <v>51.05179550448392</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.989561781480235</v>
+        <v>6.673741297470944</v>
       </c>
       <c r="M22">
-        <v>18.95721733290616</v>
+        <v>19.17173841052088</v>
       </c>
       <c r="N22">
-        <v>21.06726674223951</v>
+        <v>13.59248625798237</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.40181547170257</v>
+        <v>35.19737026787454</v>
       </c>
       <c r="C23">
-        <v>11.81333606067718</v>
+        <v>22.19809955916557</v>
       </c>
       <c r="D23">
-        <v>8.080438274486195</v>
+        <v>5.090699440901238</v>
       </c>
       <c r="E23">
-        <v>9.815980104165812</v>
+        <v>7.124067207817881</v>
       </c>
       <c r="F23">
-        <v>44.24597359325301</v>
+        <v>50.14259957692339</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.990863323108073</v>
+        <v>6.624487720112951</v>
       </c>
       <c r="M23">
-        <v>18.90906279063186</v>
+        <v>18.76662107355633</v>
       </c>
       <c r="N23">
-        <v>21.08593393798265</v>
+        <v>13.66039814301608</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.6336019761089</v>
+        <v>32.25572771744576</v>
       </c>
       <c r="C24">
-        <v>10.95211723403105</v>
+        <v>20.3629255145575</v>
       </c>
       <c r="D24">
-        <v>8.11161885835919</v>
+        <v>5.159763766391558</v>
       </c>
       <c r="E24">
-        <v>9.785607830207471</v>
+        <v>6.972973360280116</v>
       </c>
       <c r="F24">
-        <v>43.56432239380574</v>
+        <v>46.71386592197908</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.998439596805204</v>
+        <v>6.446025219607366</v>
       </c>
       <c r="M24">
-        <v>18.7334351481554</v>
+        <v>17.19367009372818</v>
       </c>
       <c r="N24">
-        <v>21.160118516427</v>
+        <v>13.93266140379932</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.80510719635138</v>
+        <v>28.92503491010188</v>
       </c>
       <c r="C25">
-        <v>9.939472193788083</v>
+        <v>18.28099444621719</v>
       </c>
       <c r="D25">
-        <v>8.149193326718898</v>
+        <v>5.253763255480313</v>
       </c>
       <c r="E25">
-        <v>9.75192344518921</v>
+        <v>6.815642567942177</v>
       </c>
       <c r="F25">
-        <v>42.86362835255515</v>
+        <v>43.03196516154351</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.01226940659424</v>
+        <v>6.269310756980445</v>
       </c>
       <c r="M25">
-        <v>18.55905051383595</v>
+        <v>15.76152157922953</v>
       </c>
       <c r="N25">
-        <v>21.247557454848</v>
+        <v>14.25362464649189</v>
       </c>
       <c r="O25">
         <v>0</v>
